--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l2-8/0_fstar_level.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l2-8/0_fstar_level.xlsx
@@ -58,7 +58,7 @@
 </t>
   </si>
   <si>
-    <t>[PopupDialog(dialogHead="$avatar_sys")] &lt;@tu.kw&gt;Half&lt;/&gt; of the Sanity cost is consumed when you fail a stage in Challenge Mode. If you have confidence in your abilities, you may attempt as many of these stages as you’d like.</t>
+    <t>[PopupDialog(dialogHead="$avatar_sys")] &lt;@tu.kw&gt;Half&lt;/&gt; of the Sanity cost is consumed when you fail a stage in Challenge Mode. If you have confidence in your abilities, you may attempt as many of these stages as you'd like.</t>
   </si>
   <si>
     <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] 이제부터 하드 모드를 사용할 수 있게 됩니다. 스테이지 &lt;@tu.kw&gt;0-1&lt;/&gt;로 이동하여 확인해 주십시오.
